--- a/docs/采薇系统模块.xlsx
+++ b/docs/采薇系统模块.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
   <si>
     <t>模块</t>
   </si>
   <si>
-    <t>后台开发</t>
-  </si>
-  <si>
-    <t>UI开发</t>
-  </si>
-  <si>
     <t>首页</t>
   </si>
   <si>
@@ -39,6 +33,12 @@
     <t>机构、学校审核</t>
   </si>
   <si>
+    <t>审核查询</t>
+  </si>
+  <si>
+    <t>审核管理</t>
+  </si>
+  <si>
     <t>活动、培训审核</t>
   </si>
   <si>
@@ -51,48 +51,89 @@
     <t>账号信息</t>
   </si>
   <si>
-    <t>密码修改</t>
+    <t>密码自修改</t>
   </si>
   <si>
     <t>平台需要支持所有用户登录，自修改密码，否则怎么和微信关联</t>
   </si>
   <si>
-    <t>教师、管理员、专家账号管理</t>
+    <t>教师管理</t>
   </si>
   <si>
     <t>需要有创建修改页面，多账号谁来维护？</t>
   </si>
   <si>
-    <t>创建、修改、删除、修改密码</t>
+    <t>教师创建</t>
+  </si>
+  <si>
+    <t>教师修改、删除、密码重置</t>
+  </si>
+  <si>
+    <t>管理员</t>
+  </si>
+  <si>
+    <t>1、教师、专家、学员的创建页面是否相同 
+2、学员、教师、庄家都在在手机端展现信息
+3、创建的学员归属于当前创建账号所在的组织、机构、系统证件号码唯一性，如果是多机构一起使用，可能会导致信息泄露
+4、VIP用户是什么
+5、在微信进入的用户与当前创建用户的关系，微信用户能在微信平台注册吗，用户归属那个组织机构？</t>
+  </si>
+  <si>
+    <t>管理员创建</t>
+  </si>
+  <si>
+    <t>管理员修改</t>
   </si>
   <si>
     <t>学员账号管理</t>
   </si>
   <si>
-    <t>有什么流程</t>
+    <t>学员创建</t>
+  </si>
+  <si>
+    <t>学员修改、删除、密码重置</t>
+  </si>
+  <si>
+    <t>专家账号管理</t>
+  </si>
+  <si>
+    <t>专家创建</t>
+  </si>
+  <si>
+    <t>专家修改、删除、密码重置</t>
   </si>
   <si>
     <t>vip账号管理</t>
   </si>
   <si>
+    <t>VIP账号创建</t>
+  </si>
+  <si>
+    <t>VIP账号修改、删除、密码重置</t>
+  </si>
+  <si>
     <t>班级管理</t>
   </si>
   <si>
     <t>班级创建</t>
   </si>
   <si>
+    <t>班级列表</t>
+  </si>
+  <si>
+    <t>学生管理</t>
+  </si>
+  <si>
     <t>学生创建</t>
   </si>
   <si>
-    <t>系统证件号码唯一性，如果是多机构一起使用，可能会导致信息泄露</t>
+    <t>1、如果系统中有学生信息，则直接使用学生信息，学生的归属组织是否能够跨组织机构，例如外部的机构可以直接使用学校的学生信息，导致信息泄露
+2、培训班和班级的区别，一个学生可以在多个培训班，而不能在多个大学班级。</t>
   </si>
   <si>
     <t>学生导入</t>
   </si>
   <si>
-    <t>学生管理</t>
-  </si>
-  <si>
     <t>学生列表</t>
   </si>
   <si>
@@ -108,67 +149,116 @@
     <t>课程管理</t>
   </si>
   <si>
-    <t>采薇课件包导入</t>
-  </si>
-  <si>
-    <t>需要了解当前结构</t>
+    <t>对课程的修改，会影响到备课，怎么控制？</t>
+  </si>
+  <si>
+    <t>导入采薇课程包（购买）</t>
+  </si>
+  <si>
+    <t>订购流程及约束</t>
+  </si>
+  <si>
+    <t>课程列表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">这里的课程列表与平台课程模块的关系？还是显示当前用户能看到的课程？
+</t>
   </si>
   <si>
     <t>创建课程</t>
   </si>
   <si>
-    <t>创建章节、创建课时</t>
-  </si>
-  <si>
-    <t>课时备课</t>
-  </si>
-  <si>
-    <t>课时状态管理</t>
+    <t>是否可以调整一下流程？创建完课程后直接进入课程管理页来进行章节、课时的管理</t>
+  </si>
+  <si>
+    <t>课程修改</t>
+  </si>
+  <si>
+    <t>修改基本信息，例如封面、描述等等</t>
+  </si>
+  <si>
+    <t>课程详情</t>
+  </si>
+  <si>
+    <t>课程发布</t>
+  </si>
+  <si>
+    <t>课程删除</t>
+  </si>
+  <si>
+    <t>创建章节</t>
+  </si>
+  <si>
+    <t>章节修改、删除</t>
+  </si>
+  <si>
+    <t>创建课时</t>
+  </si>
+  <si>
+    <t>课时修改、删除</t>
+  </si>
+  <si>
+    <t>报名列表(学生？)</t>
+  </si>
+  <si>
+    <t>课程是没有时间属性的，报名应该会在一个培训班、或一个班级中，有时间周期的</t>
+  </si>
+  <si>
+    <t>学员问答</t>
+  </si>
+  <si>
+    <t>？？</t>
+  </si>
+  <si>
+    <t>课程手机预览</t>
+  </si>
+  <si>
+    <t>备课管理
+(对课程进行备课)</t>
+  </si>
+  <si>
+    <t>备课列表</t>
+  </si>
+  <si>
+    <t>创建备课</t>
+  </si>
+  <si>
+    <t>在不使用课程包的时候，是否需要先创建课程流程？</t>
+  </si>
+  <si>
+    <t>添加班级</t>
+  </si>
+  <si>
+    <t>添加班级的时候才能有时间开课时间？这里理解与设计不符</t>
+  </si>
+  <si>
+    <t>备课详情</t>
+  </si>
+  <si>
+    <t>教学进度</t>
   </si>
   <si>
     <t>什么情况触发结束状态，如果没有触发结束状态，当超时时显示延期？</t>
   </si>
   <si>
-    <t>备课详情</t>
-  </si>
-  <si>
-    <t>课程列表</t>
-  </si>
-  <si>
-    <t>报名列表(学生？)</t>
-  </si>
-  <si>
-    <t>课程是没有时间属性的，报名应该会在一个培训班、或一个班级中，有时间周期的</t>
-  </si>
-  <si>
-    <t>课程详情</t>
-  </si>
-  <si>
-    <t>课程修改</t>
-  </si>
-  <si>
-    <t>订购课程</t>
-  </si>
-  <si>
-    <t>订购流程及约束</t>
-  </si>
-  <si>
-    <t>增加班级</t>
-  </si>
-  <si>
-    <t>课程发布</t>
-  </si>
-  <si>
-    <t>课程手机预览</t>
-  </si>
-  <si>
-    <t>学员问答</t>
-  </si>
-  <si>
     <t>考试录入？</t>
   </si>
   <si>
-    <t>学员成绩？</t>
+    <t>流程是什么？</t>
+  </si>
+  <si>
+    <t>班级课程成绩</t>
+  </si>
+  <si>
+    <t>平台课程</t>
+  </si>
+  <si>
+    <t>本校课程列表</t>
+  </si>
+  <si>
+    <t>1、购买的平台课程，就是本校课程？
+2、课程分类
+3、显示更多怎么处理。是否需要搜索？</t>
   </si>
   <si>
     <t>培训管理</t>
@@ -177,7 +267,8 @@
     <t>专家管理</t>
   </si>
   <si>
-    <t xml:space="preserve">专家不所属任何机构，与账户管理里的专家有什么关系？ 多平台专家，谁来对专家进行管理？ </t>
+    <t>1、专家不所属任何机构，与账户管理里的专家有什么关系？ 多平台专家，谁来对专家进行管理？ 
+2、与账号管理的专家的关系</t>
   </si>
   <si>
     <t>创建培训</t>
@@ -223,6 +314,15 @@
   </si>
   <si>
     <t>活动状态管理</t>
+  </si>
+  <si>
+    <t>教师首页</t>
+  </si>
+  <si>
+    <t>考试成绩</t>
+  </si>
+  <si>
+    <t>校长、管理员首页</t>
   </si>
   <si>
     <t>教学桌面</t>
@@ -424,7 +524,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,22 +541,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,9 +562,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,9 +583,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,8 +597,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,10 +676,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,60 +689,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -599,19 +705,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,163 +843,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,6 +896,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -807,30 +924,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,6 +958,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -879,17 +996,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -898,10 +1004,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,16 +1016,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -928,119 +1034,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,8 +1156,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1372,429 +1490,615 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.1238938053097" customWidth="1"/>
-    <col min="2" max="2" width="21.3716814159292" customWidth="1"/>
-    <col min="3" max="3" width="23.9026548672566" customWidth="1"/>
+    <col min="2" max="2" width="20.5840707964602" customWidth="1"/>
+    <col min="3" max="3" width="33.2654867256637" customWidth="1"/>
+    <col min="5" max="5" width="8.43362831858407" customWidth="1"/>
+    <col min="6" max="6" width="9.02654867256637" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
-      <c r="B8" t="s">
+    <row r="12" ht="40.5" spans="2:8">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="H12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:17">
-      <c r="B9" t="s">
+    <row r="13" ht="27" spans="2:8">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="H13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:17">
-      <c r="C10" t="s">
+    <row r="14" spans="3:8">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="1" t="s">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="C11"/>
-      <c r="Q11" s="1" t="s">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
+      <c r="C16"/>
+      <c r="H16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="17" spans="3:8">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="B16" t="s">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="Q16" s="1" t="s">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="1"/>
+      <c r="C23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="3:17">
-      <c r="C20" t="s">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="1"/>
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="Q20" s="1" t="s">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="1"/>
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="1"/>
+      <c r="C27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="2:17">
-      <c r="B23" t="s">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="1"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="Q23" s="1" t="s">
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="31" ht="18" customHeight="1" spans="2:2">
+      <c r="B31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+    <row r="32" ht="23" customHeight="1" spans="2:2">
+      <c r="B32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+    <row r="33" ht="89" customHeight="1" spans="3:8">
+      <c r="C33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="2:17">
-      <c r="B27" t="s">
+      <c r="H33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q27" s="1" t="s">
+    </row>
+    <row r="34" ht="23" customHeight="1" spans="3:3">
+      <c r="C34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+    <row r="36" ht="34" customHeight="1" spans="3:8">
+      <c r="C36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="2:17">
-      <c r="B30" t="s">
+      <c r="H36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q30" s="1" t="s">
+    </row>
+    <row r="37" ht="22" customHeight="1" spans="3:3">
+      <c r="C37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
+      <c r="H38" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" t="s">
+    <row r="39" spans="2:8">
+      <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="C33" t="s">
+      <c r="H39" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+    <row r="40" ht="43" customHeight="1" spans="2:8">
+      <c r="B40" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+      <c r="H40" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+    <row r="41" ht="27" spans="2:8">
+      <c r="B41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+      <c r="H41" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="1" t="s">
+    <row r="42" spans="2:8">
+      <c r="B42" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17">
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" ht="31" customHeight="1" spans="2:8">
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="2:17">
-      <c r="B50" t="s">
+    <row r="51" ht="18" customHeight="1" spans="2:8">
+      <c r="B51" t="s">
         <v>60</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="H51" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="52" ht="18" customHeight="1" spans="2:8">
+      <c r="B52" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" ht="27" spans="1:1">
+      <c r="A53" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
+    <row r="55" ht="36" customHeight="1" spans="2:8">
+      <c r="B55" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
+      <c r="C55"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" ht="23" customHeight="1" spans="2:8">
       <c r="B56" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="57" spans="2:2">
+      <c r="C56"/>
+      <c r="H56" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" ht="30" customHeight="1" spans="2:8">
       <c r="B57" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" ht="27" spans="2:8">
       <c r="B59" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
         <v>70</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" ht="53" customHeight="1" spans="2:8">
       <c r="B65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
+        <v>75</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" ht="24" customHeight="1" spans="1:1">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" ht="40.5" spans="2:8">
       <c r="B67" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" t="s">
+        <v>87</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>80</v>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H16:H28"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -1817,65 +2121,65 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1902,227 +2206,227 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="2:14">
       <c r="B15" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="N15" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="N16" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="N18" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N33" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/docs/采薇系统模块.xlsx
+++ b/docs/采薇系统模块.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168">
   <si>
     <t>模块</t>
   </si>
@@ -45,6 +45,12 @@
     <t>审核由谁来做？</t>
   </si>
   <si>
+    <t>课程审核</t>
+  </si>
+  <si>
+    <t>课程有发布功能，是否需要审核？</t>
+  </si>
+  <si>
     <t>机构、学校账号管理</t>
   </si>
   <si>
@@ -73,7 +79,7 @@
   </si>
   <si>
     <t>1、教师、专家、学员的创建页面是否相同 
-2、学员、教师、庄家都在在手机端展现信息
+2、学员、教师、专家都在在手机端展现信息
 3、创建的学员归属于当前创建账号所在的组织、机构、系统证件号码唯一性，如果是多机构一起使用，可能会导致信息泄露
 4、VIP用户是什么
 5、在微信进入的用户与当前创建用户的关系，微信用户能在微信平台注册吗，用户归属那个组织机构？</t>
@@ -257,7 +263,7 @@
   </si>
   <si>
     <t>1、购买的平台课程，就是本校课程？
-2、课程分类
+2、课程分类，显示更多怎么显示
 3、显示更多怎么处理。是否需要搜索？</t>
   </si>
   <si>
@@ -355,6 +361,9 @@
     <t>验证码</t>
   </si>
   <si>
+    <t>PC端信息编辑器</t>
+  </si>
+  <si>
     <t>前端基础框架搭建</t>
   </si>
   <si>
@@ -364,6 +373,9 @@
     <t>信息管理</t>
   </si>
   <si>
+    <t>问题</t>
+  </si>
+  <si>
     <t>招聘信息发布</t>
   </si>
   <si>
@@ -373,12 +385,18 @@
     <t>信息发布</t>
   </si>
   <si>
+    <t>微信平台有专家导师模块，专家资料、课程、活动、培训、文档。（资料）这些怎么获取，还是由专家录入</t>
+  </si>
+  <si>
     <t>资料发布</t>
   </si>
   <si>
     <t>课件包管理？</t>
   </si>
   <si>
+    <t>还是在教学平台上通过账户管理里的专家管理</t>
+  </si>
+  <si>
     <t>导入已有课件包？</t>
   </si>
   <si>
@@ -388,67 +406,67 @@
     <t>管理课件包？</t>
   </si>
   <si>
+    <t>PC html编辑器</t>
+  </si>
+  <si>
+    <t>公众号菜单</t>
+  </si>
+  <si>
+    <t>用户登录管理</t>
+  </si>
+  <si>
+    <t>需要与pc端打通</t>
+  </si>
+  <si>
+    <t>学员注册？在微信平台注册的归属于哪个账号？ 如果已经有学员账号，用户第一次微信登录后需要绑定平台账号</t>
+  </si>
+  <si>
+    <t>活动报名</t>
+  </si>
+  <si>
+    <t>报名</t>
+  </si>
+  <si>
+    <t>培训</t>
+  </si>
+  <si>
+    <t>培训报名</t>
+  </si>
+  <si>
+    <t>课程</t>
+  </si>
+  <si>
+    <t>课程报名</t>
+  </si>
+  <si>
+    <t>需要列出课程所在的培训或班级</t>
+  </si>
+  <si>
+    <t>专家导师</t>
+  </si>
+  <si>
+    <t>专家导师列表</t>
+  </si>
+  <si>
+    <t>排序、查询？</t>
+  </si>
+  <si>
+    <t>专家课程</t>
+  </si>
+  <si>
+    <t>来源于教学管理</t>
+  </si>
+  <si>
+    <t>专家活动</t>
+  </si>
+  <si>
+    <t>专家培训</t>
+  </si>
+  <si>
+    <t>来源采薇资源管理</t>
+  </si>
+  <si>
     <t>专家相关资料</t>
-  </si>
-  <si>
-    <t>PC html编辑器</t>
-  </si>
-  <si>
-    <t>公众号菜单</t>
-  </si>
-  <si>
-    <t>用户登录管理</t>
-  </si>
-  <si>
-    <t>需要与pc端打通</t>
-  </si>
-  <si>
-    <t>学员注册？在微信平台注册的归属于哪个账号？ 如果已经有学员账号，用户第一次微信登录后需要绑定平台账号</t>
-  </si>
-  <si>
-    <t>活动报名</t>
-  </si>
-  <si>
-    <t>报名</t>
-  </si>
-  <si>
-    <t>培训</t>
-  </si>
-  <si>
-    <t>培训报名</t>
-  </si>
-  <si>
-    <t>课程</t>
-  </si>
-  <si>
-    <t>课程报名</t>
-  </si>
-  <si>
-    <t>需要列出课程所在的培训或班级</t>
-  </si>
-  <si>
-    <t>专家导师</t>
-  </si>
-  <si>
-    <t>专家导师列表</t>
-  </si>
-  <si>
-    <t>排序、查询？</t>
-  </si>
-  <si>
-    <t>专家课程</t>
-  </si>
-  <si>
-    <t>来源于教学管理</t>
-  </si>
-  <si>
-    <t>专家活动</t>
-  </si>
-  <si>
-    <t>专家培训</t>
-  </si>
-  <si>
-    <t>来源采薇资源管理</t>
   </si>
   <si>
     <t>专家问答</t>
@@ -519,10 +537,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -560,36 +578,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -606,6 +594,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -614,7 +609,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,6 +639,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -660,31 +700,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,25 +729,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,19 +753,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +783,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,37 +801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,25 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,19 +837,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,18 +861,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -899,22 +917,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,9 +973,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,10 +1037,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,159 +1049,192 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1490,614 +1556,1375 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.1238938053097" customWidth="1"/>
-    <col min="2" max="2" width="20.5840707964602" customWidth="1"/>
+    <col min="2" max="2" width="20.5840707964602" style="7" customWidth="1"/>
     <col min="3" max="3" width="33.2654867256637" customWidth="1"/>
     <col min="5" max="5" width="8.43362831858407" customWidth="1"/>
     <col min="6" max="6" width="9.02654867256637" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="47" customWidth="1"/>
+    <col min="8" max="8" width="50.2477876106195" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4"/>
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="40.5" spans="2:8">
-      <c r="B12" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="4"/>
+      <c r="B11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:8">
+      <c r="A12" s="4"/>
+      <c r="B12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4"/>
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" ht="27" spans="2:8">
-      <c r="B13" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" ht="27" spans="1:8">
+      <c r="A15" s="4"/>
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="3:8">
-      <c r="C14" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="4"/>
+      <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="3:8">
-      <c r="C15" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16"/>
-      <c r="H16" s="4" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4"/>
+      <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="5" t="s">
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="1"/>
-      <c r="C20" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="1"/>
-      <c r="C21" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4"/>
+      <c r="B22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="1"/>
-      <c r="C23" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="1"/>
-      <c r="C24" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4"/>
+      <c r="B25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="1"/>
-      <c r="C26" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="1"/>
-      <c r="C27" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4"/>
+      <c r="B28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="1"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" ht="18" customHeight="1" spans="2:2">
-      <c r="B31" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" ht="23" customHeight="1" spans="2:2">
-      <c r="B32" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4"/>
+      <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" ht="89" customHeight="1" spans="3:8">
-      <c r="C33" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" ht="18" customHeight="1" spans="1:8">
+      <c r="A34" s="4"/>
+      <c r="B34" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" ht="23" customHeight="1" spans="1:8">
+      <c r="A35" s="4"/>
+      <c r="B35" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" ht="23" customHeight="1" spans="3:3">
-      <c r="C34" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" ht="89" customHeight="1" spans="1:8">
+      <c r="A36" s="4"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" t="s">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" ht="34" customHeight="1" spans="3:8">
-      <c r="C36" t="s">
+    <row r="37" ht="23" customHeight="1" spans="1:8">
+      <c r="A37" s="4"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" ht="22" customHeight="1" spans="3:3">
-      <c r="C37" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" ht="34" customHeight="1" spans="1:8">
+      <c r="A39" s="4"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="3" t="s">
+    </row>
+    <row r="40" ht="22" customHeight="1" spans="1:8">
+      <c r="A40" s="4"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" ht="43" customHeight="1" spans="2:8">
-      <c r="B40" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="4"/>
+      <c r="B42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" ht="27" spans="2:8">
-      <c r="B41" t="s">
+    <row r="43" ht="43" customHeight="1" spans="1:8">
+      <c r="A43" s="4"/>
+      <c r="B43" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
-      <c r="B42" t="s">
+    <row r="44" ht="27" spans="1:8">
+      <c r="A44" s="4"/>
+      <c r="B44" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="4"/>
+      <c r="B45" s="10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="4"/>
+      <c r="B46" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4"/>
+      <c r="B47" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4"/>
+      <c r="B48" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4"/>
+      <c r="B49" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4"/>
+      <c r="B50" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" ht="31" customHeight="1" spans="2:8">
-      <c r="B50" t="s">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4"/>
+      <c r="B51" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="4"/>
+      <c r="B52" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" ht="18" customHeight="1" spans="2:8">
-      <c r="B51" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" ht="31" customHeight="1" spans="1:8">
+      <c r="A53" s="4"/>
+      <c r="B53" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" ht="18" customHeight="1" spans="2:8">
-      <c r="B52" t="s">
+    <row r="54" ht="18" customHeight="1" spans="1:8">
+      <c r="A54" s="4"/>
+      <c r="B54" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" ht="27" spans="1:1">
-      <c r="A53" s="7" t="s">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" ht="36" customHeight="1" spans="2:8">
-      <c r="B55" t="s">
+    <row r="55" ht="18" customHeight="1" spans="1:8">
+      <c r="A55" s="4"/>
+      <c r="B55" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C55"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" ht="23" customHeight="1" spans="2:8">
-      <c r="B56" t="s">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" ht="27" spans="1:8">
+      <c r="A56" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C56"/>
-      <c r="H56" s="3" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="4"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" ht="36" customHeight="1" spans="1:8">
+      <c r="A58" s="4"/>
+      <c r="B58" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="57" ht="30" customHeight="1" spans="2:8">
-      <c r="B57" t="s">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" ht="23" customHeight="1" spans="1:8">
+      <c r="A59" s="4"/>
+      <c r="B59" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
+    <row r="60" ht="30" customHeight="1" spans="1:8">
+      <c r="A60" s="4"/>
+      <c r="B60" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="59" ht="27" spans="2:8">
-      <c r="B59" t="s">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H59" s="3" t="s">
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="4"/>
+      <c r="B61" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="1" t="s">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" ht="27" spans="1:8">
+      <c r="A62" s="4"/>
+      <c r="B62" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="1" t="s">
+    <row r="63" spans="1:8">
+      <c r="A63" s="4"/>
+      <c r="B63" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
+    <row r="64" spans="1:8">
+      <c r="A64" s="4"/>
+      <c r="B64" s="16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="65" ht="53" customHeight="1" spans="2:8">
-      <c r="B65" t="s">
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H65" s="3" t="s">
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="4"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="66" ht="24" customHeight="1" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B66" s="10"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="4"/>
+      <c r="B67" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="67" ht="40.5" spans="2:8">
-      <c r="B67" t="s">
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" ht="53" customHeight="1" spans="1:8">
+      <c r="A68" s="4"/>
+      <c r="B68" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H67" s="3" t="s">
+    </row>
+    <row r="69" ht="24" customHeight="1" spans="1:8">
+      <c r="A69" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
+      <c r="B69" s="10"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" ht="40.5" spans="1:8">
+      <c r="A70" s="4"/>
+      <c r="B70" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
+    <row r="71" spans="1:8">
+      <c r="A71" s="4"/>
+      <c r="B71" s="10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="4"/>
+      <c r="B72" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="4"/>
+      <c r="B73" s="10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="4"/>
+      <c r="B74" s="10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" t="s">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="4"/>
+      <c r="B75" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="4"/>
+      <c r="B76" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="4"/>
+      <c r="B77" s="10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
+    <row r="78" spans="1:8">
+      <c r="A78" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
+      <c r="B78" s="10"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="4"/>
+      <c r="B79" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="4"/>
+      <c r="B80" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="4"/>
+      <c r="B81" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="4"/>
+      <c r="B82" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="4"/>
+      <c r="B83" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" t="s">
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="4"/>
+      <c r="B84" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="4"/>
+      <c r="B85" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="4"/>
+      <c r="B86" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="4"/>
+      <c r="B87" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="4"/>
+      <c r="B88" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="B89" s="10"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="4"/>
+      <c r="B90" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="4"/>
+      <c r="B91" s="10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
+      <c r="B92" s="10"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" t="s">
+      <c r="B93" s="10"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="4"/>
+      <c r="B94" s="10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="4"/>
+      <c r="B95" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" t="s">
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="4"/>
+      <c r="B96" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="4"/>
+      <c r="B97" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="4"/>
+      <c r="B98" s="10" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" t="s">
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="4"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="4"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" t="s">
+      <c r="B101" s="10"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="4"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="4"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="4"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+      <c r="B105" s="10"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="4"/>
+      <c r="B106" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="4"/>
+      <c r="B107" s="10" t="s">
         <v>110</v>
       </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="4"/>
+      <c r="B108" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="10"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H16:H28"/>
+    <mergeCell ref="H19:H31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2107,79 +2934,241 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6194690265487" customWidth="1"/>
-    <col min="2" max="2" width="15.4070796460177" customWidth="1"/>
+    <col min="1" max="1" width="19.0530973451327" customWidth="1"/>
+    <col min="2" max="2" width="20.9823008849558" customWidth="1"/>
+    <col min="9" max="9" width="18.7964601769912" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" ht="81" spans="1:12">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:12">
+      <c r="A7" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="L16" t="s">
-        <v>114</v>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2193,240 +3182,241 @@
   <sheetPr/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.8053097345133" customWidth="1"/>
     <col min="2" max="2" width="18.3982300884956" customWidth="1"/>
+    <col min="14" max="14" width="21.5132743362832" customWidth="1"/>
     <col min="15" max="15" width="17.8672566371681" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" ht="67.5" spans="1:14">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="2:14">
       <c r="B12" t="s">
-        <v>131</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="2:14">
       <c r="B15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="2:14">
       <c r="B18" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" ht="121.5" spans="2:14">
       <c r="B24" t="s">
-        <v>144</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="1:14">
       <c r="A33" t="s">
-        <v>150</v>
-      </c>
-      <c r="N33" t="s">
-        <v>151</v>
+        <v>156</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
